--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H2">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I2">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J2">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>9.370999363650666</v>
+        <v>4.127476268479333</v>
       </c>
       <c r="R2">
-        <v>84.338994272856</v>
+        <v>37.147286416314</v>
       </c>
       <c r="S2">
-        <v>7.584923961245985E-05</v>
+        <v>3.335012415517264E-05</v>
       </c>
       <c r="T2">
-        <v>8.334455030093402E-05</v>
+        <v>3.675788720838438E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H3">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I3">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J3">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>472.4753308599826</v>
+        <v>381.9629257925346</v>
       </c>
       <c r="R3">
-        <v>4252.277977739844</v>
+        <v>3437.666332132812</v>
       </c>
       <c r="S3">
-        <v>0.003824234021441024</v>
+        <v>0.003086271166508055</v>
       </c>
       <c r="T3">
-        <v>0.004202139222371013</v>
+        <v>0.003401630737719354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H4">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I4">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J4">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>1.023549438748</v>
+        <v>0.9780418986093332</v>
       </c>
       <c r="R4">
-        <v>9.211944948731999</v>
+        <v>8.802377087483999</v>
       </c>
       <c r="S4">
-        <v>8.284649653903226E-06</v>
+        <v>7.90260600567893E-06</v>
       </c>
       <c r="T4">
-        <v>9.103326590131392E-06</v>
+        <v>8.710105511376122E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H5">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I5">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J5">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>147.548925218916</v>
+        <v>147.732374281181</v>
       </c>
       <c r="R5">
-        <v>885.2935513134959</v>
+        <v>886.3942456870859</v>
       </c>
       <c r="S5">
-        <v>0.001194266838486969</v>
+        <v>0.001193681732743435</v>
       </c>
       <c r="T5">
-        <v>0.0008748550247093382</v>
+        <v>0.00087710255171742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H6">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I6">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J6">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>5.069246249651999</v>
+        <v>0.9056113408599999</v>
       </c>
       <c r="R6">
-        <v>45.623216246868</v>
+        <v>8.15050206774</v>
       </c>
       <c r="S6">
-        <v>4.103067970913068E-05</v>
+        <v>7.317365065103243E-06</v>
       </c>
       <c r="T6">
-        <v>4.508527134051058E-05</v>
+        <v>8.065063820277251E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I7">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J7">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>1734.14136017749</v>
+        <v>944.8026430158247</v>
       </c>
       <c r="R7">
-        <v>15607.27224159741</v>
+        <v>8503.223787142424</v>
       </c>
       <c r="S7">
-        <v>0.01403620878048357</v>
+        <v>0.007634031887074138</v>
       </c>
       <c r="T7">
-        <v>0.01542324635970713</v>
+        <v>0.008414088107877643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I8">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J8">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
         <v>87433.47225974512</v>
@@ -948,10 +948,10 @@
         <v>786901.2503377062</v>
       </c>
       <c r="S8">
-        <v>0.7076899837708696</v>
+        <v>0.7064649111246472</v>
       </c>
       <c r="T8">
-        <v>0.7776228707264372</v>
+        <v>0.7786524991324025</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>4295.770264</v>
       </c>
       <c r="I9">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J9">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>189.4119663271306</v>
+        <v>223.8793176942382</v>
       </c>
       <c r="R9">
-        <v>1704.707696944176</v>
+        <v>2014.913859248144</v>
       </c>
       <c r="S9">
-        <v>0.001533107949525763</v>
+        <v>0.001808951173843816</v>
       </c>
       <c r="T9">
-        <v>0.001684607430066074</v>
+        <v>0.001993792374032657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I10">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J10">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>27304.52579736148</v>
+        <v>33816.77533697533</v>
       </c>
       <c r="R10">
-        <v>163827.1547841689</v>
+        <v>202900.6520218519</v>
       </c>
       <c r="S10">
-        <v>0.2210039121058963</v>
+        <v>0.2732404943496416</v>
       </c>
       <c r="T10">
-        <v>0.1618954631874542</v>
+        <v>0.2007737307630487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4295.770264</v>
       </c>
       <c r="I11">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J11">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>938.0845356307359</v>
+        <v>207.2995537064267</v>
       </c>
       <c r="R11">
-        <v>8442.760820676624</v>
+        <v>1865.69598335784</v>
       </c>
       <c r="S11">
-        <v>0.007592893346657926</v>
+        <v>0.001674986215237115</v>
       </c>
       <c r="T11">
-        <v>0.008343211938491258</v>
+        <v>0.001846138685685675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H12">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I12">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J12">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>2.742560033380889</v>
+        <v>1.450613982315778</v>
       </c>
       <c r="R12">
-        <v>24.683040300428</v>
+        <v>13.055525840842</v>
       </c>
       <c r="S12">
-        <v>2.21983894194209E-05</v>
+        <v>1.17210017125754E-05</v>
       </c>
       <c r="T12">
-        <v>2.439200172631297E-05</v>
+        <v>1.291867031485408E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H13">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I13">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J13">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>138.2768164728802</v>
+        <v>134.2420222042929</v>
       </c>
       <c r="R13">
-        <v>1244.491348255922</v>
+        <v>1208.178199838636</v>
       </c>
       <c r="S13">
-        <v>0.001119218023446086</v>
+        <v>0.001084679309132417</v>
       </c>
       <c r="T13">
-        <v>0.001229817508117655</v>
+        <v>0.00119551338150487</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H14">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I14">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J14">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.2995567147073334</v>
+        <v>0.3437357748724444</v>
       </c>
       <c r="R14">
-        <v>2.696010432366</v>
+        <v>3.093621973851999</v>
       </c>
       <c r="S14">
-        <v>2.424623900786E-06</v>
+        <v>2.777394713596739E-06</v>
       </c>
       <c r="T14">
-        <v>2.664221680960792E-06</v>
+        <v>3.061192850153678E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H15">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I15">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J15">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>43.182351163458</v>
+        <v>51.92098847655966</v>
       </c>
       <c r="R15">
-        <v>259.094106980748</v>
+        <v>311.525930859358</v>
       </c>
       <c r="S15">
-        <v>0.0003495196588243637</v>
+        <v>0.0004195230449115356</v>
       </c>
       <c r="T15">
-        <v>0.0002560391194857117</v>
+        <v>0.0003082603369915675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H16">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I16">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J16">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>1.483589062826</v>
+        <v>0.3182798369133333</v>
       </c>
       <c r="R16">
-        <v>13.352301565434</v>
+        <v>2.86451853222</v>
       </c>
       <c r="S16">
-        <v>1.200822857263283E-05</v>
+        <v>2.571710020045368E-06</v>
       </c>
       <c r="T16">
-        <v>1.319486412006831E-05</v>
+        <v>2.834491002482153E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H17">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I17">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J17">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>74.27329609108533</v>
+        <v>2.471789999184666</v>
       </c>
       <c r="R17">
-        <v>445.6397765465119</v>
+        <v>14.830739995108</v>
       </c>
       <c r="S17">
-        <v>0.0006011709971800952</v>
+        <v>1.997213260506369E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004403852226683664</v>
+        <v>1.467527565398808E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H18">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I18">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J18">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>3744.776707681481</v>
+        <v>228.7432025335773</v>
       </c>
       <c r="R18">
-        <v>22468.66024608889</v>
+        <v>1372.459215201464</v>
       </c>
       <c r="S18">
-        <v>0.03031037083385716</v>
+        <v>0.001848251499931017</v>
       </c>
       <c r="T18">
-        <v>0.0222037315030854</v>
+        <v>0.001358072308838353</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H19">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I19">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J19">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>8.112516880844</v>
+        <v>0.5857124369746667</v>
       </c>
       <c r="R19">
-        <v>48.675101285064</v>
+        <v>3.514274621848</v>
       </c>
       <c r="S19">
-        <v>6.566303260483287E-05</v>
+        <v>4.732572938458234E-06</v>
       </c>
       <c r="T19">
-        <v>4.810117149762756E-05</v>
+        <v>3.47743597530843E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H20">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I20">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J20">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>1169.453180544948</v>
+        <v>88.471351874923</v>
       </c>
       <c r="R20">
-        <v>4677.812722179791</v>
+        <v>353.885407499692</v>
       </c>
       <c r="S20">
-        <v>0.009465600312681193</v>
+        <v>0.0007148510075605348</v>
       </c>
       <c r="T20">
-        <v>0.004622656472055419</v>
+        <v>0.0003501757772501534</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H21">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I21">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J21">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>40.17817236435599</v>
+        <v>0.54233650538</v>
       </c>
       <c r="R21">
-        <v>241.069034186136</v>
+        <v>3.25401903228</v>
       </c>
       <c r="S21">
-        <v>0.000325203716764264</v>
+        <v>4.382094193110688E-06</v>
       </c>
       <c r="T21">
-        <v>0.000238226580942173</v>
+        <v>3.219908534421366E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H22">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I22">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J22">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>1.324214897388</v>
+        <v>0.7005186714527778</v>
       </c>
       <c r="R22">
-        <v>11.917934076492</v>
+        <v>6.304668043075</v>
       </c>
       <c r="S22">
-        <v>1.071824777194762E-05</v>
+        <v>5.660210536976394E-06</v>
       </c>
       <c r="T22">
-        <v>1.177740930734681E-05</v>
+        <v>6.238578888817036E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H23">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I23">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J23">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>66.765437440962</v>
+        <v>64.82706232953889</v>
       </c>
       <c r="R23">
-        <v>600.8889369686581</v>
+        <v>583.44356096585</v>
       </c>
       <c r="S23">
-        <v>0.0005404020922179848</v>
+        <v>0.0005238044840659421</v>
       </c>
       <c r="T23">
-        <v>0.0005938038349193038</v>
+        <v>0.0005773275702050292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.061691666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.185075</v>
+      </c>
+      <c r="I24">
+        <v>0.0007346404873603991</v>
+      </c>
+      <c r="J24">
+        <v>0.0007352758120596939</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="L24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G24">
-        <v>1.093437</v>
-      </c>
-      <c r="H24">
-        <v>3.280311</v>
-      </c>
-      <c r="I24">
-        <v>0.000726850800412406</v>
-      </c>
-      <c r="J24">
-        <v>0.0007368642971521721</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>0.144637659486</v>
+        <v>0.1659940764944444</v>
       </c>
       <c r="R24">
-        <v>1.301738935374</v>
+        <v>1.49394668845</v>
       </c>
       <c r="S24">
-        <v>1.170702938460679E-06</v>
+        <v>1.341236799443191E-06</v>
       </c>
       <c r="T24">
-        <v>1.286390086974044E-06</v>
+        <v>1.478286280563086E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H25">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I25">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J25">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>20.850122520162</v>
+        <v>25.07326022740417</v>
       </c>
       <c r="R25">
-        <v>125.100735120972</v>
+        <v>150.439561364425</v>
       </c>
       <c r="S25">
-        <v>0.0001687617166121351</v>
+        <v>0.0002025926467330016</v>
       </c>
       <c r="T25">
-        <v>0.0001236256680657309</v>
+        <v>0.0001488625674117561</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.061691666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.185075</v>
+      </c>
+      <c r="I26">
+        <v>0.0007346404873603991</v>
+      </c>
+      <c r="J26">
+        <v>0.0007352758120596939</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>1.093437</v>
-      </c>
-      <c r="H26">
-        <v>3.280311</v>
-      </c>
-      <c r="I26">
-        <v>0.000726850800412406</v>
-      </c>
-      <c r="J26">
-        <v>0.0007368642971521721</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>0.716334634314</v>
+        <v>0.1537011025833334</v>
       </c>
       <c r="R26">
-        <v>6.447011708826</v>
+        <v>1.38330992325</v>
       </c>
       <c r="S26">
-        <v>5.79804087187769E-06</v>
+        <v>1.241909225035865E-06</v>
       </c>
       <c r="T26">
-        <v>6.370994772816417E-06</v>
+        <v>1.368809273528297E-06</v>
       </c>
     </row>
   </sheetData>
